--- a/sofaplayer/La_Liga/Valencia_stats.xlsx
+++ b/sofaplayer/La_Liga/Valencia_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL27"/>
+  <dimension ref="A1:DL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,40 +1391,40 @@
         <v>754710</v>
       </c>
       <c r="E3" t="n">
-        <v>6.43</v>
+        <v>6.5181818181818</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2858</v>
+        <v>0.7089</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.33640549</v>
+        <v>0.34504018</v>
       </c>
       <c r="AB3" t="n">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,22 +1469,22 @@
         <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AF3" t="n">
-        <v>64.444444444444</v>
+        <v>63.636363636364</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="AR3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>2</v>
@@ -1532,28 +1532,28 @@
         <v>3</v>
       </c>
       <c r="AZ3" t="n">
-        <v>33.333333333333</v>
+        <v>27.272727272727</v>
       </c>
       <c r="BA3" t="n">
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>30.645161290323</v>
+        <v>28.787878787879</v>
       </c>
       <c r="BC3" t="n">
         <v>8</v>
       </c>
       <c r="BD3" t="n">
-        <v>22.857142857143</v>
+        <v>21.052631578947</v>
       </c>
       <c r="BE3" t="n">
         <v>11</v>
       </c>
       <c r="BF3" t="n">
-        <v>40.740740740741</v>
+        <v>39.285714285714</v>
       </c>
       <c r="BG3" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="BH3" t="n">
         <v>8</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>64.3</v>
+        <v>71.7</v>
       </c>
       <c r="BR3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1613,10 +1613,10 @@
         <v>5</v>
       </c>
       <c r="CA3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC3" t="n">
         <v>1</v>
@@ -1667,16 +1667,16 @@
         <v>4</v>
       </c>
       <c r="CS3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CT3" t="n">
         <v>1</v>
       </c>
       <c r="CU3" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CV3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="DG3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>909119</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7772727272727</v>
+        <v>6.7695652173913</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>1367</v>
+        <v>1425</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1603</v>
+        <v>5.2711</v>
       </c>
       <c r="L4" t="n">
-        <v>195.28571428571</v>
+        <v>203.57142857143</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" t="n">
         <v>10</v>
@@ -1780,7 +1780,7 @@
         <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>29.166666666667</v>
+        <v>26.923076923077</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.66526208</v>
+        <v>0.67129474</v>
       </c>
       <c r="AB4" t="n">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
@@ -1825,22 +1825,22 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AF4" t="n">
-        <v>71.88612099644099</v>
+        <v>72.260273972603</v>
       </c>
       <c r="AG4" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AH4" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK4" t="n">
         <v>5</v>
@@ -1858,19 +1858,19 @@
         <v>3</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>4</v>
       </c>
       <c r="AR4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS4" t="n">
         <v>12</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
         <v>4</v>
@@ -1891,31 +1891,31 @@
         <v>27.272727272727</v>
       </c>
       <c r="BA4" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BB4" t="n">
+        <v>41.80790960452</v>
+      </c>
+      <c r="BC4" t="n">
         <v>40</v>
       </c>
-      <c r="BC4" t="n">
-        <v>35</v>
-      </c>
       <c r="BD4" t="n">
-        <v>48.611111111111</v>
+        <v>51.948051948052</v>
       </c>
       <c r="BE4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF4" t="n">
-        <v>33.673469387755</v>
+        <v>34</v>
       </c>
       <c r="BG4" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BH4" t="n">
         <v>15</v>
       </c>
       <c r="BI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BJ4" t="n">
         <v>5</v>
@@ -1939,22 +1939,22 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>149.1</v>
+        <v>155.7</v>
       </c>
       <c r="BR4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS4" t="n">
         <v>7</v>
       </c>
       <c r="BT4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CV4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>8</v>
       </c>
       <c r="DA4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DB4" t="n">
-        <v>55.555555555556</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="DG4" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>609752</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00520794</v>
+        <v>0.00635423</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2537,22 +2537,22 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AF6" t="n">
-        <v>90.47619047619</v>
+        <v>91.17647058823501</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK6" t="n">
         <v>1</v>
@@ -2567,22 +2567,22 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>2</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2603,32 +2603,32 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>69.230769230769</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="BE6" t="n">
         <v>4</v>
       </c>
-      <c r="BB6" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC6" t="n">
+      <c r="BF6" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BG6" t="n">
         <v>3</v>
       </c>
-      <c r="BD6" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG6" t="n">
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
         <v>2</v>
       </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6.7</v>
+        <v>13.5</v>
       </c>
       <c r="BR6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2687,11 +2687,11 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD6" t="n">
         <v>3</v>
       </c>
-      <c r="CD6" t="n">
-        <v>2</v>
-      </c>
       <c r="CE6" t="n">
         <v>0</v>
       </c>
@@ -2741,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CV6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="DB6" t="n">
-        <v>50</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="DG6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ6" t="n">
         <v>2664873</v>
@@ -2815,16 +2815,16 @@
         <v>962029</v>
       </c>
       <c r="E7" t="n">
-        <v>6.65</v>
+        <v>6.6285714285714</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="n">
-        <v>1009</v>
+        <v>1099</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6678</v>
+        <v>2.6787</v>
       </c>
       <c r="L7" t="n">
-        <v>1009</v>
+        <v>1099</v>
       </c>
       <c r="M7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
@@ -2848,7 +2848,7 @@
         <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>3.8461538461538</v>
+        <v>3.7037037037037</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.37168977</v>
+        <v>1.38667767</v>
       </c>
       <c r="AB7" t="n">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="AC7" t="n">
         <v>4</v>
@@ -2893,22 +2893,22 @@
         <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="AF7" t="n">
-        <v>77.241379310345</v>
+        <v>77.708978328173</v>
       </c>
       <c r="AG7" t="n">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="AH7" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AJ7" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="n">
         <v>7</v>
@@ -2926,22 +2926,22 @@
         <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>6</v>
       </c>
       <c r="AR7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2956,28 +2956,28 @@
         <v>15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>57.692307692308</v>
       </c>
       <c r="BA7" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BB7" t="n">
-        <v>48.066298342541</v>
+        <v>46.560846560847</v>
       </c>
       <c r="BC7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BD7" t="n">
-        <v>52.380952380952</v>
+        <v>50.757575757576</v>
       </c>
       <c r="BE7" t="n">
         <v>21</v>
       </c>
       <c r="BF7" t="n">
-        <v>38.181818181818</v>
+        <v>36.842105263158</v>
       </c>
       <c r="BG7" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="BH7" t="n">
         <v>21</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" t="n">
         <v>17</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>133</v>
+        <v>139.2</v>
       </c>
       <c r="BR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS7" t="n">
         <v>3</v>
       </c>
       <c r="BT7" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>20</v>
       </c>
       <c r="CA7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CC7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD7" t="n">
         <v>3</v>
@@ -3091,16 +3091,16 @@
         <v>11</v>
       </c>
       <c r="CS7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CT7" t="n">
         <v>9</v>
       </c>
       <c r="CU7" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="CV7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3115,10 +3115,10 @@
         <v>13</v>
       </c>
       <c r="DA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB7" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="DG7" t="n">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>826948</v>
       </c>
       <c r="E8" t="n">
-        <v>7.047619047619</v>
+        <v>7.0318181818182</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1651</v>
+        <v>1709</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>825.5</v>
+        <v>854.5</v>
       </c>
       <c r="M8" t="n">
         <v>22</v>
@@ -3237,40 +3237,40 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.86268796</v>
+        <v>2.00709696</v>
       </c>
       <c r="AB8" t="n">
-        <v>1350</v>
+        <v>1388</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="AF8" t="n">
-        <v>86.493987049029</v>
+        <v>86.445242369838</v>
       </c>
       <c r="AG8" t="n">
-        <v>1081</v>
+        <v>1114</v>
       </c>
       <c r="AH8" t="n">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="AI8" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AJ8" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AK8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AL8" t="n">
-        <v>51.515151515152</v>
+        <v>50.735294117647</v>
       </c>
       <c r="AM8" t="n">
         <v>9</v>
@@ -3282,19 +3282,19 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
       </c>
       <c r="AR8" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -3315,16 +3315,16 @@
         <v>77.777777777778</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB8" t="n">
-        <v>60.402684563758</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BC8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BD8" t="n">
-        <v>59.633027522936</v>
+        <v>57.894736842105</v>
       </c>
       <c r="BE8" t="n">
         <v>25</v>
@@ -3333,10 +3333,10 @@
         <v>62.5</v>
       </c>
       <c r="BG8" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="BH8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BI8" t="n">
         <v>11</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>148</v>
+        <v>154.7</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
       </c>
       <c r="BT8" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>8</v>
       </c>
       <c r="CC8" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="CD8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CS8" t="n">
         <v>9</v>
@@ -3453,7 +3453,7 @@
         <v>42</v>
       </c>
       <c r="CU8" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="CV8" t="n">
         <v>15</v>
@@ -3468,13 +3468,13 @@
         <v>1</v>
       </c>
       <c r="CZ8" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="DA8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DB8" t="n">
-        <v>55.31914893617</v>
+        <v>56.25</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="DG8" t="n">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1122610</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6190476190476</v>
+        <v>6.6409090909091</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
         <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>1062</v>
+        <v>1094</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3590,43 +3590,43 @@
         <v>1</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.17133611</v>
+        <v>1.17910945</v>
       </c>
       <c r="AB9" t="n">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AF9" t="n">
-        <v>78.585086042065</v>
+        <v>78.358208955224</v>
       </c>
       <c r="AG9" t="n">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="AH9" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AI9" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AJ9" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK9" t="n">
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>46.551724137931</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="n">
         <v>4</v>
@@ -3638,19 +3638,19 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
         <v>2</v>
       </c>
       <c r="AR9" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AS9" t="n">
         <v>6</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -3665,31 +3665,31 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
-        <v>46.153846153846</v>
+        <v>48.148148148148</v>
       </c>
       <c r="BA9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="BB9" t="n">
-        <v>39.21568627451</v>
+        <v>41.121495327103</v>
       </c>
       <c r="BC9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BD9" t="n">
-        <v>37.931034482759</v>
+        <v>39.56043956044</v>
       </c>
       <c r="BE9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF9" t="n">
-        <v>46.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BG9" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="BH9" t="n">
         <v>17</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>139</v>
+        <v>146.1</v>
       </c>
       <c r="BR9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT9" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>5</v>
       </c>
       <c r="CB9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC9" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CD9" t="n">
         <v>22</v>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CT9" t="n">
         <v>19</v>
       </c>
       <c r="CU9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CV9" t="n">
         <v>8</v>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="DA9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB9" t="n">
         <v>50</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="DG9" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,40 +3883,40 @@
         <v>909966</v>
       </c>
       <c r="E10" t="n">
-        <v>6.7166666666667</v>
+        <v>6.7923076923077</v>
       </c>
       <c r="F10" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>304</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.6122</v>
+      </c>
+      <c r="L10" t="n">
+        <v>152</v>
+      </c>
+      <c r="M10" t="n">
         <v>12</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>216</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.4807</v>
-      </c>
-      <c r="L10" t="n">
-        <v>216</v>
-      </c>
-      <c r="M10" t="n">
-        <v>11</v>
-      </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>9.090909090909101</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -3949,64 +3949,64 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.44446657</v>
+        <v>0.5332723700000001</v>
       </c>
       <c r="AB10" t="n">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="n">
-        <v>74.60317460317501</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>29</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>24</v>
-      </c>
       <c r="AK10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL10" t="n">
         <v>100</v>
       </c>
       <c r="AM10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO10" t="n">
         <v>2</v>
       </c>
-      <c r="AN10" t="n">
-        <v>22.222222222222</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1</v>
-      </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ10" t="n">
         <v>2</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AS10" t="n">
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>3</v>
@@ -4024,34 +4024,34 @@
         <v>9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>52.941176470588</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BA10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
-        <v>39.583333333333</v>
+        <v>39.285714285714</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
-        <v>41.860465116279</v>
+        <v>40</v>
       </c>
       <c r="BE10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF10" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG10" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="BH10" t="n">
         <v>7</v>
       </c>
       <c r="BI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>80.59999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="BR10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4102,19 +4102,19 @@
         <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CA10" t="n">
         <v>4</v>
       </c>
       <c r="CB10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CC10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CD10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CU10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="CV10" t="n">
         <v>4</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DA10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB10" t="n">
         <v>100</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="DG10" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>900433</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7681818181818</v>
+        <v>6.7739130434783</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>1545</v>
+        <v>1635</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>1.5549</v>
       </c>
       <c r="L13" t="n">
-        <v>772.5</v>
+        <v>817.5</v>
       </c>
       <c r="M13" t="n">
         <v>29</v>
@@ -5014,67 +5014,67 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.6658877</v>
+        <v>2.7548608</v>
       </c>
       <c r="AB13" t="n">
-        <v>833</v>
+        <v>884</v>
       </c>
       <c r="AC13" t="n">
         <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="AF13" t="n">
-        <v>77.689243027888</v>
+        <v>78.130841121495</v>
       </c>
       <c r="AG13" t="n">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="AH13" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AI13" t="n">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AJ13" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AK13" t="n">
         <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>51.282051282051</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>23.913043478261</v>
+        <v>23.469387755102</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
         <v>10</v>
       </c>
       <c r="AR13" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
         <v>19</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
@@ -5095,16 +5095,16 @@
         <v>51.219512195122</v>
       </c>
       <c r="BA13" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BB13" t="n">
-        <v>46.376811594203</v>
+        <v>45.774647887324</v>
       </c>
       <c r="BC13" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BD13" t="n">
-        <v>50.406504065041</v>
+        <v>49.606299212598</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
@@ -5113,28 +5113,28 @@
         <v>13.333333333333</v>
       </c>
       <c r="BG13" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="BH13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI13" t="n">
         <v>21</v>
       </c>
       <c r="BJ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
         <v>3</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>2</v>
       </c>
       <c r="BO13" t="n">
         <v>26</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>148.9</v>
+        <v>155.8</v>
       </c>
       <c r="BR13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT13" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>12</v>
       </c>
       <c r="CB13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CC13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CD13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5224,16 +5224,16 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CS13" t="n">
         <v>41</v>
       </c>
       <c r="CT13" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="CU13" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="CV13" t="n">
         <v>13</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="DA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB13" t="n">
-        <v>70</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="DG13" t="n">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>857482</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7461538461538</v>
+        <v>6.7357142857143</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>705</v>
+        <v>763</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.06686103</v>
+        <v>1.07381235</v>
       </c>
       <c r="AB14" t="n">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
@@ -5385,34 +5385,34 @@
         <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="AF14" t="n">
-        <v>82.890855457227</v>
+        <v>83.425414364641</v>
       </c>
       <c r="AG14" t="n">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AH14" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="AI14" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>58.620689655172</v>
+        <v>61.290322580645</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>31.818181818182</v>
+        <v>26.923076923077</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
@@ -5424,13 +5424,13 @@
         <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -5451,16 +5451,16 @@
         <v>85.71428571428601</v>
       </c>
       <c r="BA14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB14" t="n">
-        <v>53.571428571429</v>
+        <v>52.542372881356</v>
       </c>
       <c r="BC14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD14" t="n">
-        <v>53.658536585366</v>
+        <v>52.272727272727</v>
       </c>
       <c r="BE14" t="n">
         <v>8</v>
@@ -5469,19 +5469,19 @@
         <v>53.333333333333</v>
       </c>
       <c r="BG14" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="BH14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>87.7</v>
+        <v>94.3</v>
       </c>
       <c r="BR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS14" t="n">
         <v>3</v>
       </c>
       <c r="BT14" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,10 +5535,10 @@
         <v>7</v>
       </c>
       <c r="CC14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CD14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5586,10 +5586,10 @@
         <v>7</v>
       </c>
       <c r="CT14" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="CU14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CV14" t="n">
         <v>7</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="DA14" t="n">
         <v>4</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="DG14" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>344751</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8352941176471</v>
+        <v>6.8333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5684,7 +5684,7 @@
         <v>0.365</v>
       </c>
       <c r="L15" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="M15" t="n">
         <v>6</v>
@@ -5732,7 +5732,7 @@
         <v>0.80631124</v>
       </c>
       <c r="AB15" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5744,10 +5744,10 @@
         <v>331</v>
       </c>
       <c r="AF15" t="n">
-        <v>82.133995037221</v>
+        <v>81.930693069307</v>
       </c>
       <c r="AG15" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH15" t="n">
         <v>171</v>
@@ -5762,7 +5762,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>56.09756097561</v>
+        <v>54.761904761905</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>5</v>
@@ -5786,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="AT15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU15" t="n">
         <v>2</v>
@@ -5807,16 +5807,16 @@
         <v>50</v>
       </c>
       <c r="BA15" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BB15" t="n">
-        <v>53.75</v>
+        <v>55.421686746988</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
-        <v>47.169811320755</v>
+        <v>50</v>
       </c>
       <c r="BE15" t="n">
         <v>18</v>
@@ -5825,13 +5825,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG15" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BH15" t="n">
         <v>13</v>
       </c>
       <c r="BI15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ15" t="n">
         <v>1</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>116.2</v>
+        <v>123</v>
       </c>
       <c r="BR15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS15" t="n">
         <v>2</v>
       </c>
       <c r="BT15" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="DA15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB15" t="n">
-        <v>36.363636363636</v>
+        <v>41.666666666667</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DG15" t="n">
         <v>205</v>
@@ -6375,16 +6375,16 @@
         <v>227922</v>
       </c>
       <c r="E17" t="n">
-        <v>6.4842105263158</v>
+        <v>6.51</v>
       </c>
       <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
         <v>19</v>
       </c>
-      <c r="G17" t="n">
-        <v>18</v>
-      </c>
       <c r="H17" t="n">
-        <v>1461</v>
+        <v>1551</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>0.6384</v>
       </c>
       <c r="L17" t="n">
-        <v>1461</v>
+        <v>1551</v>
       </c>
       <c r="M17" t="n">
         <v>8</v>
@@ -6441,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.50139775</v>
+        <v>1.54552475</v>
       </c>
       <c r="AB17" t="n">
-        <v>897</v>
+        <v>942</v>
       </c>
       <c r="AC17" t="n">
         <v>2</v>
@@ -6453,52 +6453,52 @@
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="AF17" t="n">
-        <v>81.454545454545</v>
+        <v>82.161234991424</v>
       </c>
       <c r="AG17" t="n">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="AH17" t="n">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AI17" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="AJ17" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>35.714285714286</v>
+        <v>37.931034482759</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>21.428571428571</v>
+        <v>22.80701754386</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ17" t="n">
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -6519,25 +6519,25 @@
         <v>35.714285714286</v>
       </c>
       <c r="BA17" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB17" t="n">
-        <v>59.82905982906</v>
+        <v>60</v>
       </c>
       <c r="BC17" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD17" t="n">
-        <v>58.333333333333</v>
+        <v>58.163265306122</v>
       </c>
       <c r="BE17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BF17" t="n">
-        <v>66.666666666667</v>
+        <v>68.181818181818</v>
       </c>
       <c r="BG17" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BH17" t="n">
         <v>18</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO17" t="n">
         <v>26</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>123.2</v>
+        <v>130.2</v>
       </c>
       <c r="BR17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
@@ -6603,10 +6603,10 @@
         <v>3</v>
       </c>
       <c r="CC17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CD17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6654,10 +6654,10 @@
         <v>14</v>
       </c>
       <c r="CT17" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CU17" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CV17" t="n">
         <v>7</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="DA17" t="n">
         <v>20</v>
       </c>
       <c r="DB17" t="n">
-        <v>50</v>
+        <v>48.780487804878</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="DG17" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>996928</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7</v>
+        <v>6.6904761904762</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>1594</v>
+        <v>1684</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.10037803</v>
+        <v>0.10256704</v>
       </c>
       <c r="AB18" t="n">
-        <v>1164</v>
+        <v>1228</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6809,28 +6809,28 @@
         <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>779</v>
+        <v>826</v>
       </c>
       <c r="AF18" t="n">
-        <v>85.88754134509399</v>
+        <v>85.773624091381</v>
       </c>
       <c r="AG18" t="n">
-        <v>907</v>
+        <v>963</v>
       </c>
       <c r="AH18" t="n">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="AI18" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AJ18" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK18" t="n">
         <v>45</v>
       </c>
       <c r="AL18" t="n">
-        <v>40.909090909091</v>
+        <v>38.793103448276</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6842,19 +6842,19 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AS18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT18" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6875,28 +6875,28 @@
         <v>88.888888888889</v>
       </c>
       <c r="BA18" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BB18" t="n">
-        <v>55.147058823529</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BC18" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD18" t="n">
-        <v>58.333333333333</v>
+        <v>56.578947368421</v>
       </c>
       <c r="BE18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF18" t="n">
-        <v>51.5625</v>
+        <v>50.746268656716</v>
       </c>
       <c r="BG18" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="BH18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BI18" t="n">
         <v>5</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO18" t="n">
         <v>28</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>134</v>
+        <v>140.5</v>
       </c>
       <c r="BR18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>2</v>
       </c>
       <c r="CC18" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CD18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CE18" t="n">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CV18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="DA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB18" t="n">
-        <v>55.172413793103</v>
+        <v>56.666666666667</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="DG18" t="n">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="DH18" t="n">
         <v>25</v>
@@ -7443,16 +7443,16 @@
         <v>892521</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.00435458</v>
+        <v>0.00700757</v>
       </c>
       <c r="AB20" t="n">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7521,28 +7521,28 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="AF20" t="n">
-        <v>76.92307692307701</v>
+        <v>81.15942028985501</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK20" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>73.333333333333</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7551,22 +7551,22 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS20" t="n">
         <v>2</v>
       </c>
-      <c r="AP20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1</v>
-      </c>
       <c r="AT20" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7587,31 +7587,31 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>70.58823529411799</v>
+      </c>
+      <c r="BC20" t="n">
         <v>7</v>
       </c>
-      <c r="BB20" t="n">
-        <v>63.636363636364</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>4</v>
-      </c>
       <c r="BD20" t="n">
-        <v>80</v>
+        <v>77.777777777778</v>
       </c>
       <c r="BE20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF20" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BH20" t="n">
         <v>0</v>
       </c>
       <c r="BI20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO20" t="n">
         <v>1</v>
@@ -7635,16 +7635,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>7</v>
+        <v>14.4</v>
       </c>
       <c r="BR20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD20" t="n">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="CU20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CV20" t="n">
         <v>3</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DA20" t="n">
         <v>2</v>
       </c>
       <c r="DB20" t="n">
-        <v>66.666666666667</v>
+        <v>40</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="DG20" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7799,16 +7799,16 @@
         <v>814023</v>
       </c>
       <c r="E21" t="n">
-        <v>6.75</v>
+        <v>6.8285714285714</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>0.3252</v>
       </c>
       <c r="L21" t="n">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.07088988</v>
+        <v>0.0790025</v>
       </c>
       <c r="AB21" t="n">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7877,28 +7877,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="AF21" t="n">
-        <v>82.35294117647101</v>
+        <v>85.15901060070701</v>
       </c>
       <c r="AG21" t="n">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="AH21" t="n">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="AI21" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
-        <v>34.375</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7907,22 +7907,22 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7943,25 +7943,25 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
-        <v>59.259259259259</v>
+        <v>59.375</v>
       </c>
       <c r="BC21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD21" t="n">
-        <v>60</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BE21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF21" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="BG21" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BH21" t="n">
         <v>2</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>40.5</v>
+        <v>47.8</v>
       </c>
       <c r="BR21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="CD21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8081,10 +8081,10 @@
         <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CV21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="DA21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB21" t="n">
-        <v>60</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,13 +8114,13 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="DG21" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="DH21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DI21" t="n">
         <v>1</v>
@@ -8867,16 +8867,16 @@
         <v>996929</v>
       </c>
       <c r="E24" t="n">
-        <v>6.6153846153846</v>
+        <v>6.6142857142857</v>
       </c>
       <c r="F24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.31246966</v>
+        <v>0.31314875</v>
       </c>
       <c r="AB24" t="n">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8948,10 +8948,10 @@
         <v>210</v>
       </c>
       <c r="AF24" t="n">
-        <v>87.136929460581</v>
+        <v>86.77685950413201</v>
       </c>
       <c r="AG24" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AH24" t="n">
         <v>93</v>
@@ -8978,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>3</v>
@@ -8987,10 +8987,10 @@
         <v>34</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -9011,37 +9011,37 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BB24" t="n">
-        <v>48.275862068966</v>
+        <v>47.311827956989</v>
       </c>
       <c r="BC24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD24" t="n">
-        <v>48</v>
+        <v>46.25</v>
       </c>
       <c r="BE24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF24" t="n">
-        <v>50</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BG24" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BH24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI24" t="n">
         <v>6</v>
       </c>
       <c r="BJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
@@ -9059,16 +9059,16 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>86</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="BR24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>5</v>
       </c>
       <c r="CB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC24" t="n">
         <v>8</v>
@@ -9149,7 +9149,7 @@
         <v>17</v>
       </c>
       <c r="CU24" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CV24" t="n">
         <v>6</v>
@@ -9167,10 +9167,10 @@
         <v>14</v>
       </c>
       <c r="DA24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB24" t="n">
-        <v>28.571428571429</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DG24" t="n">
         <v>136</v>
@@ -9216,26 +9216,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rubén Iranzo</t>
+          <t>Julen Agirrezabala</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1167704</v>
+        <v>1014412</v>
       </c>
       <c r="E25" t="n">
-        <v>6.7</v>
+        <v>6.9111111111111</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>1620</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -9287,142 +9287,142 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.00107744</v>
+        <v>0.01880043</v>
       </c>
       <c r="AB25" t="n">
-        <v>6</v>
+        <v>675</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
+        <v>344</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>69.635627530364</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>494</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>292</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>35.217391304348</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
         <v>2</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>134</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF25" t="n">
         <v>100</v>
       </c>
-      <c r="AG25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
       <c r="BG25" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="BH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25" t="n">
         <v>0</v>
       </c>
       <c r="BK25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25" t="n">
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="BN25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BP25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ25" t="n">
-        <v>6.7</v>
+        <v>124.4</v>
       </c>
       <c r="BR25" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9449,10 +9449,10 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CD25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9461,31 +9461,31 @@
         <v>0</v>
       </c>
       <c r="CG25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="CI25" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CJ25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CK25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CM25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CO25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CP25" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="CR25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS25" t="n">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>2</v>
       </c>
       <c r="CV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW25" t="n">
         <v>0</v>
@@ -9518,44 +9518,46 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="DA25" t="n">
         <v>1</v>
       </c>
       <c r="DB25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="DC25" t="n">
         <v>0</v>
       </c>
       <c r="DD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DF25" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="DG25" t="n">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="DH25" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2599063</v>
+        <v>2141016</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL25" t="inlineStr"/>
+      <c r="DL25" t="n">
+        <v>-4.0318</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9570,26 +9572,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Julen Agirrezabala</t>
+          <t>Stole Dimitrievski</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1014412</v>
+        <v>97951</v>
       </c>
       <c r="E26" t="n">
-        <v>6.9111111111111</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>1620</v>
+        <v>540</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9641,40 +9643,40 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01880043</v>
+        <v>0.01261555</v>
       </c>
       <c r="AB26" t="n">
-        <v>675</v>
+        <v>236</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="n">
-        <v>69.635627530364</v>
+        <v>59.473684210526</v>
       </c>
       <c r="AG26" t="n">
-        <v>494</v>
+        <v>190</v>
       </c>
       <c r="AH26" t="n">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
-        <v>35.217391304348</v>
+        <v>39.68253968254</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -9686,223 +9688,223 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>78</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BN26" t="n">
         <v>2</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>134</v>
-      </c>
-      <c r="AS26" t="n">
+      <c r="BO26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>42</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>77</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>37</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>19</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>6</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>126</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
         <v>2</v>
       </c>
-      <c r="AT26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>151</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>54</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>30</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>124.4</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>150</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>26</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>38</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>14</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>26</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>10</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>21</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>19</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>21</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
-        <v>230</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>50</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>10</v>
-      </c>
       <c r="DF26" t="n">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="DG26" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="DH26" t="n">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
       </c>
       <c r="DJ26" t="n">
-        <v>2141016</v>
+        <v>2584299</v>
       </c>
       <c r="DK26" t="inlineStr">
         <is>
@@ -9910,363 +9912,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>-4.0318</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Stole Dimitrievski</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>97951</v>
-      </c>
-      <c r="E27" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>450</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.01160533</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>188</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>82</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>54.304635761589</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>52</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>38.181818181818</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>70</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>12</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>7</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>69</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>30</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>8</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>4</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK27" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM27" t="n">
-        <v>3</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>3</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>3</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ27" t="n">
-        <v>110</v>
-      </c>
-      <c r="DA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE27" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF27" t="n">
-        <v>65</v>
-      </c>
-      <c r="DG27" t="n">
-        <v>86</v>
-      </c>
-      <c r="DH27" t="n">
-        <v>20</v>
-      </c>
-      <c r="DI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ27" t="n">
-        <v>2584299</v>
-      </c>
-      <c r="DK27" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL27" t="n">
-        <v>-2.5285</v>
+        <v>-1.8606</v>
       </c>
     </row>
   </sheetData>
